--- a/data/trans_dic/P21B_R2-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P21B_R2-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.04310121729793959</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.009374777342046824</v>
+        <v>0.009374777342046826</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.03592160272428735</v>
@@ -711,37 +711,37 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.003800713379041196</v>
+        <v>0.003774646516437576</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01722372580959174</v>
+        <v>0.01912259295903319</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01820374503837882</v>
+        <v>0.0176014524704186</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.00559559333872281</v>
+        <v>0.007222991827531737</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.008409691082721427</v>
+        <v>0.007871614988194556</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03694321410228314</v>
+        <v>0.03712052266399717</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01467104081733371</v>
+        <v>0.01550154417418995</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.006594052105806848</v>
+        <v>0.007051480405786811</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01742401222891203</v>
+        <v>0.01676501887672142</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.02472136246011925</v>
+        <v>0.02570300581857693</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03770718499812727</v>
+        <v>0.04095817196086159</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.037799207006023</v>
+        <v>0.03546026833564196</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08406420388244532</v>
+        <v>0.0835138216239988</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04858190905101734</v>
+        <v>0.04627115549688402</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06396016871305993</v>
+        <v>0.06354667825249478</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03362796105636105</v>
+        <v>0.03415693987008925</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.04897420658302115</v>
+        <v>0.047392013570283</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1065471380664445</v>
+        <v>0.1085782406315113</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0480894801203841</v>
+        <v>0.04776545247083226</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.0261436443290154</v>
+        <v>0.02767849874792231</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.0538562412267009</v>
+        <v>0.05191579845520377</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.06930357448413778</v>
+        <v>0.07000870323290982</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02145387489880933</v>
+        <v>0.02150501227523286</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02247841225918608</v>
+        <v>0.01977072683019462</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.003394994989482501</v>
+        <v>0.003595249862252316</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.004069021546509026</v>
+        <v>0.004058143945901075</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01378813622574017</v>
+        <v>0.01367138564248893</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03542644209625926</v>
+        <v>0.04089983185712756</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03105193516779981</v>
+        <v>0.03147054678406386</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01596217301499045</v>
+        <v>0.01392153863251087</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01019597232504821</v>
+        <v>0.01018653047786069</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.04056556919925016</v>
+        <v>0.04018177710514564</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02228457744768229</v>
+        <v>0.02346472516588987</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.08942299465080988</v>
+        <v>0.09123046124059384</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03086115806576646</v>
+        <v>0.03426348954414082</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1091532115834974</v>
+        <v>0.102785307442122</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03978364386382446</v>
+        <v>0.04587367632285498</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04481105298255075</v>
+        <v>0.04337558188207835</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.06540556448744168</v>
+        <v>0.06501962643644436</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1191876818124644</v>
+        <v>0.1192664350048611</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.08195665980168539</v>
+        <v>0.08159269899956292</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05372172817682907</v>
+        <v>0.0508070896311218</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.04368144526221628</v>
+        <v>0.04276363020042902</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.09921407630752915</v>
+        <v>0.09803237568377748</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.05647794094039219</v>
+        <v>0.0570884430538189</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.1179723445648973</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.06520403450882059</v>
+        <v>0.0652040345088206</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.03246546836770627</v>
@@ -969,7 +969,7 @@
         <v>0.1201481867598252</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.06440121627489391</v>
+        <v>0.0644012162748939</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02513454157396312</v>
+        <v>0.02086503578935944</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0722388347962217</v>
+        <v>0.07138267664364127</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03728844175787025</v>
+        <v>0.03501850896353947</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.004783445222654319</v>
+        <v>0.004205568890473223</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02383405893164584</v>
+        <v>0.02467568852243845</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.07191821557457588</v>
+        <v>0.07316478905918271</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04307915061733446</v>
+        <v>0.04171022691920442</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01665673130043572</v>
+        <v>0.01890030206601835</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01584000244012733</v>
+        <v>0.01580450086069</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.08329508407826429</v>
+        <v>0.08266666876731218</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.04647141775271892</v>
+        <v>0.04688394030242049</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1037063867597359</v>
+        <v>0.09895091714165932</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03788428799168832</v>
+        <v>0.03277691216091046</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2091489020698292</v>
+        <v>0.2034079381387214</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1033207806540666</v>
+        <v>0.1042900418726101</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04258916652404122</v>
+        <v>0.04240055422151303</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.09134117103260427</v>
+        <v>0.08744646423008355</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1799171663210234</v>
+        <v>0.1815181649681585</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.09867656583462632</v>
+        <v>0.09336179698752524</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05630503296055134</v>
+        <v>0.05801508683286967</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.0526369242417995</v>
+        <v>0.05694133983486131</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1623977159414896</v>
+        <v>0.1668885522190218</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.08785922861844331</v>
+        <v>0.09116812785791245</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.06902715913246245</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1637258825954986</v>
+        <v>0.1637258825954987</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.07701345997505796</v>
@@ -1093,7 +1093,7 @@
         <v>0.1194712035877133</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.1366727055467941</v>
+        <v>0.136672705546794</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.04538867291301712</v>
@@ -1119,37 +1119,37 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03775952754710465</v>
+        <v>0.04021186652745858</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02416622315778516</v>
+        <v>0.02751643619284534</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1139738554476793</v>
+        <v>0.1166248294612739</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0295307707356152</v>
+        <v>0.03024548042179065</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02078955261534266</v>
+        <v>0.02016329808216947</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.06084010048216668</v>
+        <v>0.06278561165978536</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.09427257405960734</v>
+        <v>0.09896375857077266</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01894225743015587</v>
+        <v>0.01915359598116163</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.04416804406313501</v>
+        <v>0.04473498701595201</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.05808650517275096</v>
+        <v>0.05658478609843742</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1173271252371255</v>
+        <v>0.116525611608282</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06814513959887612</v>
+        <v>0.08782162106449408</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1870044349680166</v>
+        <v>0.1965583676776711</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1501348456828366</v>
+        <v>0.138187507700547</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2296980410542276</v>
+        <v>0.2367831480504261</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1690096927738629</v>
+        <v>0.1711407271556583</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1297994605453222</v>
+        <v>0.1170780491156324</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1965507362970637</v>
+        <v>0.2091529264947986</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1863947106644783</v>
+        <v>0.196333158625092</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0864028634664626</v>
+        <v>0.08694535030658519</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1340715380977974</v>
+        <v>0.1351066383239037</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1474935428675242</v>
+        <v>0.1508880617379611</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1907839901199918</v>
+        <v>0.1921226416727252</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.07005952278666078</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.07784801620058364</v>
+        <v>0.07784801620058363</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.03158168506411296</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02340323334902364</v>
+        <v>0.02177711745338799</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01158651969624917</v>
+        <v>0.01134630651727206</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04749429349259197</v>
+        <v>0.04800541597285964</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0542006630591477</v>
+        <v>0.0564533605679236</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01752248164518301</v>
+        <v>0.01772005053632805</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02124647206003001</v>
+        <v>0.02170978437036735</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.05329773319433947</v>
+        <v>0.05205399683995328</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.06389592693327423</v>
+        <v>0.06252328716300551</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0231771295135471</v>
+        <v>0.0232939029420799</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.02023376713951901</v>
+        <v>0.01960425562718479</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.05511023593703471</v>
+        <v>0.05407590980303116</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.06397330349952286</v>
+        <v>0.06366502117180178</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05734371847702898</v>
+        <v>0.05877521977798203</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03534844233003552</v>
+        <v>0.03550681419317905</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.08937263466783446</v>
+        <v>0.09606626129800447</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.09999365777935969</v>
+        <v>0.1011135751467536</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.04112056252117209</v>
+        <v>0.04145143717011996</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.04404948792679121</v>
+        <v>0.04608561348763585</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.09227392052239559</v>
+        <v>0.09012884976933444</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.09770513036797462</v>
+        <v>0.09644336869614235</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04271426003338811</v>
+        <v>0.04287430597747943</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.03614725979130776</v>
+        <v>0.03697627080805538</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.08518240696397014</v>
+        <v>0.08423270102466712</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.09127521322643303</v>
+        <v>0.08925060743102195</v>
       </c>
     </row>
     <row r="19">
@@ -1603,37 +1603,37 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3508</v>
+        <v>3895</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5187</v>
+        <v>5015</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2207</v>
+        <v>2848</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2359</v>
+        <v>2208</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>7104</v>
+        <v>7138</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>5787</v>
+        <v>6114</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>4155</v>
+        <v>4443</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>8437</v>
+        <v>8118</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>7804</v>
+        <v>8114</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4129</v>
+        <v>4485</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>8912</v>
+        <v>8360</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>17122</v>
+        <v>17010</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>5995</v>
+        <v>5709</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>18223</v>
+        <v>18105</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>13261</v>
+        <v>13470</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>13739</v>
+        <v>13295</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>20488</v>
+        <v>20878</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>18968</v>
+        <v>18840</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>16473</v>
+        <v>17441</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>26078</v>
+        <v>25138</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>21878</v>
+        <v>22100</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3906</v>
+        <v>3915</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3319</v>
+        <v>2919</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>576</v>
+        <v>610</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>3882</v>
+        <v>3849</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>6982</v>
+        <v>8060</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>7920</v>
+        <v>8026</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>6605</v>
+        <v>5760</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>4958</v>
+        <v>4954</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>13984</v>
+        <v>13852</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>9467</v>
+        <v>9968</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>16280</v>
+        <v>16609</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>6320</v>
+        <v>7017</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>16118</v>
+        <v>15178</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>6754</v>
+        <v>7787</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>10383</v>
+        <v>10050</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>18413</v>
+        <v>18304</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>23488</v>
+        <v>23504</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>20903</v>
+        <v>20810</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>22228</v>
+        <v>21022</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>21243</v>
+        <v>20796</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>34203</v>
+        <v>33795</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>23992</v>
+        <v>24251</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4493</v>
+        <v>3730</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>8050</v>
+        <v>7954</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>7404</v>
+        <v>6953</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1129</v>
+        <v>993</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>4610</v>
+        <v>4773</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>11335</v>
+        <v>11532</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>11441</v>
+        <v>11077</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>6909</v>
+        <v>7839</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>5903</v>
+        <v>5889</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>22410</v>
+        <v>22241</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>21569</v>
+        <v>21761</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>18539</v>
+        <v>17689</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>6789</v>
+        <v>5874</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>23306</v>
+        <v>22667</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>20515</v>
+        <v>20708</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>10051</v>
+        <v>10007</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>17667</v>
+        <v>16914</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>28358</v>
+        <v>28610</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>26207</v>
+        <v>24795</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>23353</v>
+        <v>24063</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>19614</v>
+        <v>21218</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>43693</v>
+        <v>44901</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>40779</v>
+        <v>42315</v>
       </c>
     </row>
     <row r="16">
@@ -2143,37 +2143,37 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3088</v>
+        <v>3289</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2050</v>
+        <v>2334</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>26393</v>
+        <v>27007</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1744</v>
+        <v>1787</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2124</v>
+        <v>2060</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>6648</v>
+        <v>6861</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>19645</v>
+        <v>20623</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>2641</v>
+        <v>2671</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>8124</v>
+        <v>8228</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>11275</v>
+        <v>10984</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>51619</v>
+        <v>51267</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>5477</v>
+        <v>7058</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>15294</v>
+        <v>16076</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>12737</v>
+        <v>11723</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>53192</v>
+        <v>54833</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>9983</v>
+        <v>10109</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>13258</v>
+        <v>11959</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>21477</v>
+        <v>22855</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>38842</v>
+        <v>40913</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>12048</v>
+        <v>12123</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>24660</v>
+        <v>24850</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>28630</v>
+        <v>29289</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>83937</v>
+        <v>84526</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>12888</v>
+        <v>11993</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>8129</v>
+        <v>7960</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>26008</v>
+        <v>26288</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>39202</v>
+        <v>40832</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>14223</v>
+        <v>14383</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>20639</v>
+        <v>21089</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>39680</v>
+        <v>38754</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>58867</v>
+        <v>57603</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>31576</v>
+        <v>31735</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>33851</v>
+        <v>32798</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>71208</v>
+        <v>69872</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>105209</v>
+        <v>104702</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>31579</v>
+        <v>32367</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>24799</v>
+        <v>24910</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>48941</v>
+        <v>52607</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>72324</v>
+        <v>73134</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>33377</v>
+        <v>33646</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>42791</v>
+        <v>44769</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>68698</v>
+        <v>67101</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>90016</v>
+        <v>88853</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>58193</v>
+        <v>58411</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>60474</v>
+        <v>61861</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>110065</v>
+        <v>108838</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>150110</v>
+        <v>146780</v>
       </c>
     </row>
     <row r="24">
